--- a/biology/Botanique/Kapok/Kapok.xlsx
+++ b/biology/Botanique/Kapok/Kapok.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kapok, en malais kapuk, est une fibre végétale que l'on tire de fruits de plusieurs arbres de la famille des Bombacaceae. On utilise plus particulièrement ceux de Ceiba pentandra, le kapokier (aussi appelé « fromager »), un grand arbre des zones tropicales, originaire d'Amérique latine . Ceux de Bombax ceiba, un autre fromager, peuvent également être employés.
 Cette fibre très légère a pour caractéristique son imperméabilité et son imputrescibilité. Elle est constituée par les poils fins et soyeux enveloppant les graines. Elle est en revanche très inflammable, caractéristique qui a causé l'incendie et la perte du paquebot Normandie dont les gilets de sauvetage en kapok ont pris feu par accident.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kapok est filé au Cambodge pour faire du tissu.
 Il a servi longtemps, jusqu'au XXe siècle, à la confection de matelas confortables et chauds en Europe. Ces matelas étaient en outre très durables car ils pouvaient être cardés au bout de quelques décennies. Le cardeur, décousant le matelas et le recousant ensuite, lui redonnait le confort d'un matelas neuf en une journée de travail avec sa cardeuse à main, en extérieur, la fibre étant pour sa part imputrescible.
